--- a/DOWNLOADS/EDITAIS/U_985499_900972025/U_985499_900972025_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_985499_900972025/U_985499_900972025_master.xlsx
@@ -253,13 +253,13 @@
     <t>Lubrificante especial para cortiças e encaixes dos instrumentos musicais 15g.</t>
   </si>
   <si>
-    <t>Molas em aço inox para Clarinete kit contendo 12 molas agulhas, 05 molas chatas de 3cm, 01 mola chata de 1,5cm e 06 parafusos.</t>
+    <t>Molas em aço inox  para Clarinete kit contendo 12 molas agulhas, 05 molas chatas de 3cm, 01 mola chata de 1,5cm e 06 parafusos.</t>
   </si>
   <si>
     <t>Óleo Lubrificante para pisto frasco com 60 ml.</t>
   </si>
   <si>
-    <t>Palheta Clarineta , numeração 2/5 em fibra de bambu, com revestimento em plástico na cor preta.</t>
+    <t>Palheta Clarineta  , numeração 2/5 em fibra de bambu, com revestimento em plástico na cor preta.</t>
   </si>
   <si>
     <t>Palheta para oboé, de força média fabricada em estilo artesanal em bambu, com estojo plástico protetor.</t>
